--- a/biology/Médecine/1795_en_santé_et_médecine/1795_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1795_en_santé_et_médecine/1795_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1795_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1795_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1795 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1795_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1795_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Prenant en compte plusieurs critères (modification du goût, coût important et piètres qualités nutritives des produits salés, séchés, fumés et confits), Nicolas Appert (1749-1841) met au point le procédé qui rend possible la mise en conserve (appelée appertisation) des aliments, soit soixante ans avant Louis Pasteur et la pasteurisation.
-21 juin : Jean Goulin (1728-1799) est nommé professeur titulaire pour l'Histoire de la médecine de la Faculté de médecine de Paris[1].
-Philippe Pinel (1745-1826) est nommé à l'hôpital de la Salpêtrière, où Jean-Baptiste Pussin (1745-1811) le rejoint[2].
-Michel-Augustin Thouret (1749-1810) est nommé directeur de l’École de Santé de Paris[3].
-À Montpellier, le conservatoire d’anatomie est créé parallèlement à l’ouverture de l’École de santé[4].</t>
+21 juin : Jean Goulin (1728-1799) est nommé professeur titulaire pour l'Histoire de la médecine de la Faculté de médecine de Paris.
+Philippe Pinel (1745-1826) est nommé à l'hôpital de la Salpêtrière, où Jean-Baptiste Pussin (1745-1811) le rejoint.
+Michel-Augustin Thouret (1749-1810) est nommé directeur de l’École de Santé de Paris.
+À Montpellier, le conservatoire d’anatomie est créé parallèlement à l’ouverture de l’École de santé.</t>
         </is>
       </c>
     </row>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1795_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1795_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Pierre Roussel  (1742-1802) : Système physique et moral de la femme[5].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Pierre Roussel  (1742-1802) : Système physique et moral de la femme.</t>
         </is>
       </c>
     </row>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1795_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1795_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>15 février : Pascal Monard (mort en 1874), chirurgien militaire et botaniste français.
 18 mai : Alfred Velpeau (mort en 1867), anatomiste et chirurgien français.
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1795_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1795_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,11 +626,13 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>9 juin : François Chopart (né en 1743), chirurgien français[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>9 juin : François Chopart (né en 1743), chirurgien français.
 21 septembre : Pál Adámi (né en 1739), médecin, zoologiste et vétérinaire hongrois.
-29 novembre : Friedrich Albrecht Anton Meyer (né en 1768), médecin et naturaliste allemand[7].</t>
+29 novembre : Friedrich Albrecht Anton Meyer (né en 1768), médecin et naturaliste allemand.</t>
         </is>
       </c>
     </row>
